--- a/ITI/PDQm/2.3.0/StructureDefinition-IHE.PDQm.Query.Audit.Consumer.xlsx
+++ b/ITI/PDQm/2.3.0/StructureDefinition-IHE.PDQm.Query.Audit.Consumer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-08T07:11:44-06:00</t>
+    <t>2021-11-08T09:47:36-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ITI/PDQm/2.3.0/StructureDefinition-IHE.PDQm.Query.Audit.Consumer.xlsx
+++ b/ITI/PDQm/2.3.0/StructureDefinition-IHE.PDQm.Query.Audit.Consumer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-08T09:47:36-06:00</t>
+    <t>2021-11-08T19:30:32-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
